--- a/src/main/resources/oven.xlsx
+++ b/src/main/resources/oven.xlsx
@@ -8,13 +8,43 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mauro\Pi\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E101DCD-950B-4F60-BD97-B43ABB9F31E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E20422E-4A19-4097-8C3E-1EBA6C95B321}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="1155" windowWidth="23700" windowHeight="14895" xr2:uid="{2E4FC67E-2A5B-4CB8-8F58-957DCBB41204}"/>
+    <workbookView xWindow="2985" yWindow="1155" windowWidth="23700" windowHeight="14895" activeTab="1" xr2:uid="{2E4FC67E-2A5B-4CB8-8F58-957DCBB41204}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Sheet2!$E$9:$E$12</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">"""""""""""""""0,0001"""""""""""""""</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">"""""""""""""""0,075"""""""""""""""</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet2!$F$7</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">"""""""""""""""0,000001"""""""""""""""</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -8395,6 +8425,346 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.1361725721784777"/>
+                  <c:y val="1.2844123651210265E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>220</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8DB8-4C55-B5A9-AAE4C433BF1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="531874528"/>
+        <c:axId val="531867312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="531874528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="531867312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="531867312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="531874528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8435,7 +8805,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8992,6 +9918,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFF81F7D-17E6-409A-8579-6C7DFDBF1787}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9291,7 +10258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0441062E-B1C0-4090-BCE0-F35AFC3B5178}">
   <dimension ref="B1:T66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -13258,4 +14225,146 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DE117D-4066-4EF4-B009-093063BFF61B}">
+  <dimension ref="A2:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>B2-273.15</f>
+        <v>-73.149999999999977</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2">
+        <v>237</v>
+      </c>
+      <c r="E2">
+        <f>$E$9+($E$10+($E$11+$E$12*A2)*A2)*A2</f>
+        <v>227.41625170107363</v>
+      </c>
+      <c r="F2">
+        <f>(E2-C2)^2</f>
+        <v>91.848231457174023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>B3-273.15</f>
+        <v>-0.14999999999997726</v>
+      </c>
+      <c r="B3">
+        <v>273</v>
+      </c>
+      <c r="C3">
+        <v>236</v>
+      </c>
+      <c r="E3">
+        <f>$E$9+($E$10+($E$11+$E$12*A3)*A3)*A3</f>
+        <v>234.09058905579047</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F6" si="0">(E3-C3)^2</f>
+        <v>3.6458501538671135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>B4-273.15</f>
+        <v>126.85000000000002</v>
+      </c>
+      <c r="B4">
+        <v>400</v>
+      </c>
+      <c r="C4">
+        <v>240</v>
+      </c>
+      <c r="E4">
+        <f>$E$9+($E$10+($E$11+$E$12*A4)*A4)*A4</f>
+        <v>242.85255189707837</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>8.1370523255254117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>B5-273.15</f>
+        <v>326.85000000000002</v>
+      </c>
+      <c r="B5">
+        <v>600</v>
+      </c>
+      <c r="C5">
+        <v>232</v>
+      </c>
+      <c r="E5">
+        <f>$E$9+($E$10+($E$11+$E$12*A5)*A5)*A5</f>
+        <v>243.19240404879912</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>125.26990839157492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>B6-273.15</f>
+        <v>526.85</v>
+      </c>
+      <c r="B6">
+        <v>800</v>
+      </c>
+      <c r="C6">
+        <v>220</v>
+      </c>
+      <c r="E6">
+        <f>$E$9+($E$10+($E$11+$E$12*A6)*A6)*A6</f>
+        <v>217.20375334894044</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>7.8189953335618148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f>SUM(F2:F6)</f>
+        <v>236.72003766170329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>234.10339817047452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>8.5379154688749001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>-9.9656466034460381E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>-2.3400114181865532E-7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/oven.xlsx
+++ b/src/main/resources/oven.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mauro\Pi\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F575104-B76F-4DD0-8BF6-AD066D1A0910}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5908E023-52A4-4ACF-8320-CC930416B33B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="23700" windowHeight="14895" xr2:uid="{2E4FC67E-2A5B-4CB8-8F58-957DCBB41204}"/>
   </bookViews>
@@ -21357,15 +21357,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
